--- a/data/FictitiousDataMod.xlsx
+++ b/data/FictitiousDataMod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachg\Documents\ug_thesis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zach.gousseau/Documents/GitHub/ug_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D09C2C-F1BC-4446-8C3B-E9001121F4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99E5927-9A98-FB47-BF16-2EE4DAFCA1FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="799" firstSheet="2" activeTab="5" xr2:uid="{200E0D9B-9F6D-426A-BEB3-8930502E9E77}"/>
+    <workbookView xWindow="18440" yWindow="2140" windowWidth="28840" windowHeight="21780" tabRatio="799" activeTab="6" xr2:uid="{200E0D9B-9F6D-426A-BEB3-8930502E9E77}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeWindows" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,11 @@
     <sheet name="OD-TravelDist" sheetId="3" r:id="rId4"/>
     <sheet name="OD-TravelTime" sheetId="6" r:id="rId5"/>
     <sheet name="PublicTransit" sheetId="7" r:id="rId6"/>
+    <sheet name="PublicTransitTimes" sheetId="8" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PublicTransitTimes!$A$2:$B$26</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TimeWindow</t>
   </si>
@@ -73,16 +77,10 @@
     <t>NodeID</t>
   </si>
   <si>
-    <t>1 - Nodes</t>
+    <t>Node</t>
   </si>
   <si>
-    <t>1 - Time</t>
-  </si>
-  <si>
-    <t>2 - Nodes</t>
-  </si>
-  <si>
-    <t>2 - Time</t>
+    <t>Every</t>
   </si>
 </sst>
 </file>
@@ -120,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -128,28 +126,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,12 +456,12 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -483,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -494,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -505,7 +494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -516,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>6.25E-2</v>
       </c>
@@ -527,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -538,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0.104166666666667</v>
       </c>
@@ -549,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0.125</v>
       </c>
@@ -560,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0.14583333333333301</v>
       </c>
@@ -571,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.16666666666666699</v>
       </c>
@@ -582,7 +571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0.1875</v>
       </c>
@@ -593,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0.20833333333333301</v>
       </c>
@@ -604,7 +593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0.22916666666666699</v>
       </c>
@@ -615,7 +604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0.25</v>
       </c>
@@ -626,7 +615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0.27083333333333298</v>
       </c>
@@ -637,7 +626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0.29166666666666702</v>
       </c>
@@ -648,7 +637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0.3125</v>
       </c>
@@ -659,7 +648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0.33333333333333298</v>
       </c>
@@ -670,7 +659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0.35416666666666702</v>
       </c>
@@ -681,7 +670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0.375</v>
       </c>
@@ -692,7 +681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.39583333333333298</v>
       </c>
@@ -703,7 +692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0.41666666666666702</v>
       </c>
@@ -714,7 +703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.4375</v>
       </c>
@@ -725,7 +714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0.45833333333333298</v>
       </c>
@@ -736,7 +725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.47916666666666702</v>
       </c>
@@ -747,7 +736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.5</v>
       </c>
@@ -758,7 +747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.52083333333333304</v>
       </c>
@@ -769,7 +758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.54166666666666696</v>
       </c>
@@ -780,7 +769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.5625</v>
       </c>
@@ -791,7 +780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.58333333333333304</v>
       </c>
@@ -802,7 +791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.60416666666666696</v>
       </c>
@@ -813,7 +802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0.625</v>
       </c>
@@ -824,7 +813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.64583333333333304</v>
       </c>
@@ -835,7 +824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0.66666666666666696</v>
       </c>
@@ -846,7 +835,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>0.6875</v>
       </c>
@@ -857,7 +846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0.70833333333333304</v>
       </c>
@@ -868,7 +857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>0.72916666666666696</v>
       </c>
@@ -879,7 +868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>0.75</v>
       </c>
@@ -890,7 +879,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>0.77083333333333304</v>
       </c>
@@ -901,7 +890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>0.79166666666666696</v>
       </c>
@@ -912,7 +901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>0.8125</v>
       </c>
@@ -923,7 +912,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0.83333333333333304</v>
       </c>
@@ -934,7 +923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>0.85416666666666696</v>
       </c>
@@ -945,7 +934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>0.875</v>
       </c>
@@ -956,7 +945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0.89583333333333304</v>
       </c>
@@ -967,7 +956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>0.91666666666666696</v>
       </c>
@@ -978,7 +967,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>0.9375</v>
       </c>
@@ -989,7 +978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0.95833333333333304</v>
       </c>
@@ -1000,7 +989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>0.97916666666666696</v>
       </c>
@@ -1011,7 +1000,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
     </row>
@@ -1029,18 +1018,18 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1069,7 +1058,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1084,7 +1073,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1099,7 +1088,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1114,7 +1103,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1129,7 +1118,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1144,7 +1133,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1159,7 +1148,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1174,7 +1163,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1189,7 +1178,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1217,12 +1206,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1250,7 +1239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1264,7 +1253,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1278,7 +1267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1302,15 +1291,15 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Z26"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="26" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1387,7 +1376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1467,7 +1456,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1547,7 +1536,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1627,7 +1616,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1707,7 +1696,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1787,7 +1776,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1867,7 +1856,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1947,7 +1936,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2027,7 +2016,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2107,7 +2096,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2187,7 +2176,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2267,7 +2256,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2347,7 +2336,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2427,7 +2416,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2507,7 +2496,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2587,7 +2576,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2667,7 +2656,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2747,7 +2736,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2827,7 +2816,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2907,7 +2896,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2987,7 +2976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3067,7 +3056,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3147,7 +3136,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3227,7 +3216,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3307,7 +3296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3397,15 +3386,15 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="26" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -3482,7 +3471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3562,7 +3551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3642,7 +3631,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3722,7 +3711,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3802,7 +3791,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3882,7 +3871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3962,7 +3951,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4042,7 +4031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4122,7 +4111,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4202,7 +4191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4282,7 +4271,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4362,7 +4351,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4442,7 +4431,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4522,7 +4511,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4602,7 +4591,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4682,7 +4671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4762,7 +4751,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4842,7 +4831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4922,7 +4911,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5002,7 +4991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5082,7 +5071,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5162,7 +5151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5242,7 +5231,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5322,7 +5311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5402,7 +5391,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5489,879 +5478,2988 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A33471-588E-4B24-8A7F-8A915BF72CF3}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="5.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.83203125" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A1" s="5">
+        <f>'OD-TravelTime'!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1" s="5">
+        <f>'OD-TravelTime'!B1</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <f>'OD-TravelTime'!C1</f>
+        <v>2</v>
+      </c>
+      <c r="D1" s="5">
+        <f>'OD-TravelTime'!D1</f>
+        <v>3</v>
+      </c>
+      <c r="E1" s="5">
+        <f>'OD-TravelTime'!E1</f>
+        <v>4</v>
+      </c>
+      <c r="F1" s="5">
+        <f>'OD-TravelTime'!F1</f>
+        <v>5</v>
+      </c>
+      <c r="G1" s="5">
+        <f>'OD-TravelTime'!G1</f>
+        <v>6</v>
+      </c>
+      <c r="H1" s="5">
+        <f>'OD-TravelTime'!H1</f>
+        <v>7</v>
+      </c>
+      <c r="I1" s="5">
+        <f>'OD-TravelTime'!I1</f>
+        <v>8</v>
+      </c>
+      <c r="J1" s="5">
+        <f>'OD-TravelTime'!J1</f>
+        <v>9</v>
+      </c>
+      <c r="K1" s="5">
+        <f>'OD-TravelTime'!K1</f>
+        <v>10</v>
+      </c>
+      <c r="L1" s="5">
+        <f>'OD-TravelTime'!L1</f>
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="M1" s="5">
+        <f>'OD-TravelTime'!M1</f>
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="N1" s="5">
+        <f>'OD-TravelTime'!N1</f>
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="O1" s="5">
+        <f>'OD-TravelTime'!O1</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="P1" s="5">
+        <f>'OD-TravelTime'!P1</f>
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5">
+        <f>'OD-TravelTime'!Q1</f>
+        <v>16</v>
+      </c>
+      <c r="R1" s="5">
+        <f>'OD-TravelTime'!R1</f>
+        <v>17</v>
+      </c>
+      <c r="S1" s="5">
+        <f>'OD-TravelTime'!S1</f>
+        <v>18</v>
+      </c>
+      <c r="T1" s="5">
+        <f>'OD-TravelTime'!T1</f>
+        <v>19</v>
+      </c>
+      <c r="U1" s="5">
+        <f>'OD-TravelTime'!U1</f>
         <v>20</v>
       </c>
-      <c r="B2" s="2">
+      <c r="V1" s="5">
+        <f>'OD-TravelTime'!V1</f>
+        <v>21</v>
+      </c>
+      <c r="W1" s="5">
+        <f>'OD-TravelTime'!W1</f>
+        <v>22</v>
+      </c>
+      <c r="X1" s="5">
+        <f>'OD-TravelTime'!X1</f>
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5">
+        <f>'OD-TravelTime'!Y1</f>
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5">
+        <f>'OD-TravelTime'!Z1</f>
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <f>'OD-TravelTime'!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="J2" s="5">
+        <v>53</v>
+      </c>
+      <c r="K2" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="L2" s="5">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="N2" s="5">
+        <v>50</v>
+      </c>
+      <c r="O2" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="P2" s="5">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="R2" s="5">
+        <v>53</v>
+      </c>
+      <c r="S2" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="T2" s="5">
+        <v>79</v>
+      </c>
+      <c r="U2" s="5">
+        <v>92.5</v>
+      </c>
+      <c r="V2" s="5">
+        <v>54</v>
+      </c>
+      <c r="W2" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="X2" s="5">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>88.5</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>104</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <f>'OD-TravelTime'!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>55</v>
+      </c>
+      <c r="L3" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>30</v>
+      </c>
+      <c r="N3" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="O3" s="5">
+        <v>54</v>
+      </c>
+      <c r="P3" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>53</v>
+      </c>
+      <c r="R3" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="S3" s="5">
+        <v>55</v>
+      </c>
+      <c r="T3" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="U3" s="5">
+        <v>80</v>
+      </c>
+      <c r="V3" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="W3" s="5">
+        <v>53</v>
+      </c>
+      <c r="X3" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>80</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>88.5</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <f>'OD-TravelTime'!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>28</v>
+      </c>
+      <c r="K4" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>50</v>
+      </c>
+      <c r="M4" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N4" s="5">
+        <v>28</v>
+      </c>
+      <c r="O4" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="P4" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="R4" s="5">
+        <v>52</v>
+      </c>
+      <c r="S4" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="T4" s="5">
+        <v>50</v>
+      </c>
+      <c r="U4" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="V4" s="5">
+        <v>78</v>
+      </c>
+      <c r="W4" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="X4" s="5">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <f>'OD-TravelTime'!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>54</v>
+      </c>
+      <c r="H5" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>28</v>
+      </c>
+      <c r="J5" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>25</v>
+      </c>
+      <c r="L5" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>55</v>
+      </c>
+      <c r="N5" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="O5" s="5">
+        <v>27</v>
+      </c>
+      <c r="P5" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>78</v>
+      </c>
+      <c r="R5" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="S5" s="5">
+        <v>52</v>
+      </c>
+      <c r="T5" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="U5" s="5">
+        <v>55</v>
+      </c>
+      <c r="V5" s="5">
+        <v>88.5</v>
+      </c>
+      <c r="W5" s="5">
+        <v>80</v>
+      </c>
+      <c r="X5" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <f>'OD-TravelTime'!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>28</v>
+      </c>
+      <c r="K6" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>80</v>
+      </c>
+      <c r="M6" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="N6" s="5">
+        <v>51</v>
+      </c>
+      <c r="O6" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="P6" s="5">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>89.5</v>
+      </c>
+      <c r="R6" s="5">
+        <v>78</v>
+      </c>
+      <c r="S6" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="T6" s="5">
+        <v>52</v>
+      </c>
+      <c r="U6" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="V6" s="5">
+        <v>101</v>
+      </c>
+      <c r="W6" s="5">
+        <v>92.5</v>
+      </c>
+      <c r="X6" s="5">
+        <v>79</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>54</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <f>'OD-TravelTime'!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>55</v>
+      </c>
+      <c r="F7" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>27</v>
+      </c>
+      <c r="J7" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>51</v>
+      </c>
+      <c r="L7" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="M7" s="5">
+        <v>28</v>
+      </c>
+      <c r="N7" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="O7" s="5">
+        <v>52</v>
+      </c>
+      <c r="P7" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>25</v>
+      </c>
+      <c r="R7" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="S7" s="5">
+        <v>52</v>
+      </c>
+      <c r="T7" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="U7" s="5">
+        <v>76</v>
+      </c>
+      <c r="V7" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="W7" s="5">
+        <v>54</v>
+      </c>
+      <c r="X7" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>78</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>91.5</v>
+      </c>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <f>'OD-TravelTime'!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>29</v>
+      </c>
+      <c r="K8" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="L8" s="5">
+        <v>25</v>
+      </c>
+      <c r="M8" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="N8" s="5">
+        <v>30</v>
+      </c>
+      <c r="O8" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="P8" s="5">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="R8" s="5">
+        <v>26</v>
+      </c>
+      <c r="S8" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="T8" s="5">
+        <v>55</v>
+      </c>
+      <c r="U8" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="V8" s="5">
+        <v>54</v>
+      </c>
+      <c r="W8" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="X8" s="5">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>75</v>
+      </c>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <f>'OD-TravelTime'!A9</f>
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="B9" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="I9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <f>IF(B2="", "", IF(B2+VLOOKUP(PublicTransit!A2, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A3, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B2+VLOOKUP(PublicTransit!A2, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A3, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>2.6041666666666668E-2</v>
-      </c>
-      <c r="C3">
+      <c r="J9" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>25</v>
+      </c>
+      <c r="L9" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="M9" s="5">
+        <v>26</v>
+      </c>
+      <c r="N9" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="O9" s="5">
+        <v>30</v>
+      </c>
+      <c r="P9" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>53</v>
+      </c>
+      <c r="R9" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="S9" s="5">
+        <v>26</v>
+      </c>
+      <c r="T9" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="U9" s="5">
+        <v>54</v>
+      </c>
+      <c r="V9" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="W9" s="5">
+        <v>54</v>
+      </c>
+      <c r="X9" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>53</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <f>'OD-TravelTime'!A10</f>
         <v>9</v>
       </c>
-      <c r="D3" s="2">
-        <f>IF(D2="", "", IF(D2+VLOOKUP(PublicTransit!C2, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C3, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D2+VLOOKUP(PublicTransit!C2, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C3, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>8.6805555555555559E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <f>IF(B3="", "", IF(B3+VLOOKUP(PublicTransit!A3, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A4, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B3+VLOOKUP(PublicTransit!A3, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A4, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>6.0763888888888895E-2</v>
-      </c>
-      <c r="C4">
+      <c r="B10" s="5">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>30</v>
+      </c>
+      <c r="G10" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="L10" s="5">
+        <v>55</v>
+      </c>
+      <c r="M10" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="N10" s="5">
+        <v>26</v>
+      </c>
+      <c r="O10" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="P10" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="R10" s="5">
+        <v>55</v>
+      </c>
+      <c r="S10" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="T10" s="5">
+        <v>25</v>
+      </c>
+      <c r="U10" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="V10" s="5">
+        <v>78</v>
+      </c>
+      <c r="W10" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="X10" s="5">
+        <v>51</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <f>'OD-TravelTime'!A11</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>27</v>
+      </c>
+      <c r="J11" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="M11" s="5">
+        <v>55</v>
+      </c>
+      <c r="N11" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="O11" s="5">
+        <v>28</v>
+      </c>
+      <c r="P11" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>75</v>
+      </c>
+      <c r="R11" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="S11" s="5">
+        <v>54</v>
+      </c>
+      <c r="T11" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="U11" s="5">
+        <v>26</v>
+      </c>
+      <c r="V11" s="5">
+        <v>90.5</v>
+      </c>
+      <c r="W11" s="5">
+        <v>78</v>
+      </c>
+      <c r="X11" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <f>'OD-TravelTime'!A12</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>80</v>
+      </c>
+      <c r="G12" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>28</v>
+      </c>
+      <c r="I12" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>54</v>
+      </c>
+      <c r="K12" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="N12" s="5">
+        <v>28</v>
+      </c>
+      <c r="O12" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="P12" s="5">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="R12" s="5">
+        <v>27</v>
+      </c>
+      <c r="S12" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="T12" s="5">
+        <v>50</v>
+      </c>
+      <c r="U12" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="V12" s="5">
+        <v>28</v>
+      </c>
+      <c r="W12" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="X12" s="5">
+        <v>55</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>79</v>
+      </c>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <f>'OD-TravelTime'!A13</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="G13" s="5">
+        <v>29</v>
+      </c>
+      <c r="H13" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>28</v>
+      </c>
+      <c r="J13" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>52</v>
+      </c>
+      <c r="L13" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="O13" s="5">
+        <v>28</v>
+      </c>
+      <c r="P13" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>29</v>
+      </c>
+      <c r="R13" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="S13" s="5">
+        <v>26</v>
+      </c>
+      <c r="T13" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="U13" s="5">
+        <v>52</v>
+      </c>
+      <c r="V13" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="W13" s="5">
+        <v>29</v>
+      </c>
+      <c r="X13" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>54</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <f>'OD-TravelTime'!A14</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>52</v>
+      </c>
+      <c r="C14" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>50</v>
+      </c>
+      <c r="G14" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>25</v>
+      </c>
+      <c r="I14" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="J14" s="5">
+        <v>30</v>
+      </c>
+      <c r="K14" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="L14" s="5">
+        <v>25</v>
+      </c>
+      <c r="M14" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="P14" s="5">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="R14" s="5">
+        <v>25</v>
+      </c>
+      <c r="S14" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="T14" s="5">
+        <v>30</v>
+      </c>
+      <c r="U14" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="V14" s="5">
+        <v>54</v>
+      </c>
+      <c r="W14" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="X14" s="5">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>54</v>
+      </c>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <f>'OD-TravelTime'!A15</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>28</v>
+      </c>
+      <c r="F15" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="G15" s="5">
+        <v>54</v>
+      </c>
+      <c r="H15" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>29</v>
+      </c>
+      <c r="J15" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="K15" s="5">
+        <v>27</v>
+      </c>
+      <c r="L15" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="M15" s="5">
+        <v>30</v>
+      </c>
+      <c r="N15" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>52</v>
+      </c>
+      <c r="R15" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="S15" s="5">
+        <v>25</v>
+      </c>
+      <c r="T15" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="U15" s="5">
+        <v>29</v>
+      </c>
+      <c r="V15" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="W15" s="5">
+        <v>52</v>
+      </c>
+      <c r="X15" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>27</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <f>'OD-TravelTime'!A16</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>78</v>
+      </c>
+      <c r="C16" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>54</v>
+      </c>
+      <c r="E16" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>28</v>
+      </c>
+      <c r="G16" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>50</v>
+      </c>
+      <c r="I16" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="J16" s="5">
+        <v>27</v>
+      </c>
+      <c r="K16" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="L16" s="5">
+        <v>53</v>
+      </c>
+      <c r="M16" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="N16" s="5">
+        <v>26</v>
+      </c>
+      <c r="O16" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="R16" s="5">
+        <v>54</v>
+      </c>
+      <c r="S16" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="T16" s="5">
+        <v>28</v>
+      </c>
+      <c r="U16" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="V16" s="5">
+        <v>78</v>
+      </c>
+      <c r="W16" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="X16" s="5">
+        <v>54</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>25</v>
+      </c>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <f>'OD-TravelTime'!A17</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>53</v>
+      </c>
+      <c r="D17" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>80</v>
+      </c>
+      <c r="F17" s="5">
+        <v>92.5</v>
+      </c>
+      <c r="G17" s="5">
+        <v>27</v>
+      </c>
+      <c r="H17" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="I17" s="5">
+        <v>51</v>
+      </c>
+      <c r="J17" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="K17" s="5">
+        <v>80</v>
+      </c>
+      <c r="L17" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="M17" s="5">
+        <v>27</v>
+      </c>
+      <c r="N17" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="O17" s="5">
+        <v>51</v>
+      </c>
+      <c r="P17" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="S17" s="5">
+        <v>30</v>
+      </c>
+      <c r="T17" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="U17" s="5">
+        <v>51</v>
+      </c>
+      <c r="V17" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="W17" s="5">
+        <v>28</v>
+      </c>
+      <c r="X17" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <f>'OD-TravelTime'!A18</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>54</v>
+      </c>
+      <c r="C18" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>78</v>
+      </c>
+      <c r="G18" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>27</v>
+      </c>
+      <c r="I18" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="J18" s="5">
+        <v>50</v>
+      </c>
+      <c r="K18" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="L18" s="5">
+        <v>25</v>
+      </c>
+      <c r="M18" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="N18" s="5">
+        <v>29</v>
+      </c>
+      <c r="O18" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="P18" s="5">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="T18" s="5">
+        <v>25</v>
+      </c>
+      <c r="U18" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="V18" s="5">
+        <v>26</v>
+      </c>
+      <c r="W18" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="X18" s="5">
+        <v>25</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>54</v>
+      </c>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <f>'OD-TravelTime'!A19</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>52</v>
+      </c>
+      <c r="D19" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>52</v>
+      </c>
+      <c r="F19" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>51</v>
+      </c>
+      <c r="H19" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="I19" s="5">
+        <v>28</v>
+      </c>
+      <c r="J19" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="K19" s="5">
+        <v>50</v>
+      </c>
+      <c r="L19" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="M19" s="5">
+        <v>27</v>
+      </c>
+      <c r="N19" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="O19" s="5">
+        <v>29</v>
+      </c>
+      <c r="P19" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>29</v>
+      </c>
+      <c r="R19" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="U19" s="5">
+        <v>29</v>
+      </c>
+      <c r="V19" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="W19" s="5">
+        <v>28</v>
+      </c>
+      <c r="X19" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>26</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <f>'OD-TravelTime'!A20</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>78</v>
+      </c>
+      <c r="C20" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>53</v>
+      </c>
+      <c r="E20" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>51</v>
+      </c>
+      <c r="G20" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>55</v>
+      </c>
+      <c r="I20" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="J20" s="5">
+        <v>25</v>
+      </c>
+      <c r="K20" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="L20" s="5">
+        <v>51</v>
+      </c>
+      <c r="M20" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N20" s="5">
+        <v>28</v>
+      </c>
+      <c r="O20" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="P20" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="R20" s="5">
+        <v>29</v>
+      </c>
+      <c r="S20" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="V20" s="5">
+        <v>53</v>
+      </c>
+      <c r="W20" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="X20" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>26</v>
+      </c>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <f>'OD-TravelTime'!A21</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>78</v>
+      </c>
+      <c r="D21" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>53</v>
+      </c>
+      <c r="F21" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>76</v>
+      </c>
+      <c r="H21" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="I21" s="5">
+        <v>52</v>
+      </c>
+      <c r="J21" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="K21" s="5">
+        <v>25</v>
+      </c>
+      <c r="L21" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="M21" s="5">
+        <v>53</v>
+      </c>
+      <c r="N21" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="O21" s="5">
+        <v>30</v>
+      </c>
+      <c r="P21" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>51</v>
+      </c>
+      <c r="R21" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="S21" s="5">
+        <v>26</v>
+      </c>
+      <c r="T21" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="W21" s="5">
+        <v>55</v>
+      </c>
+      <c r="X21" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <f>'OD-TravelTime'!A22</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>79</v>
+      </c>
+      <c r="E22" s="5">
+        <v>88.5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>104</v>
+      </c>
+      <c r="G22" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="H22" s="5">
+        <v>51</v>
+      </c>
+      <c r="I22" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="J22" s="5">
+        <v>77</v>
+      </c>
+      <c r="K22" s="5">
+        <v>90.5</v>
+      </c>
+      <c r="L22" s="5">
+        <v>28</v>
+      </c>
+      <c r="M22" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="N22" s="5">
+        <v>52</v>
+      </c>
+      <c r="O22" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="P22" s="5">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="R22" s="5">
+        <v>26</v>
+      </c>
+      <c r="S22" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="T22" s="5">
+        <v>53</v>
+      </c>
+      <c r="U22" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="X22" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>55</v>
+      </c>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <f>'OD-TravelTime'!A23</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>54</v>
+      </c>
+      <c r="D23" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>77</v>
+      </c>
+      <c r="F23" s="5">
+        <v>91.5</v>
+      </c>
+      <c r="G23" s="5">
+        <v>53</v>
+      </c>
+      <c r="H23" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="I23" s="5">
+        <v>51</v>
+      </c>
+      <c r="J23" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="K23" s="5">
+        <v>79</v>
+      </c>
+      <c r="L23" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="M23" s="5">
+        <v>29</v>
+      </c>
+      <c r="N23" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="O23" s="5">
+        <v>55</v>
+      </c>
+      <c r="P23" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>27</v>
+      </c>
+      <c r="R23" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="S23" s="5">
+        <v>30</v>
+      </c>
+      <c r="T23" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="U23" s="5">
+        <v>53</v>
+      </c>
+      <c r="V23" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>30</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <f>'OD-TravelTime'!A24</f>
         <v>23</v>
       </c>
-      <c r="D4" s="2">
-        <f>IF(D3="", "", IF(D3+VLOOKUP(PublicTransit!C3, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C4, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D3+VLOOKUP(PublicTransit!C3, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C4, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>4.3402777777777776E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <f>IF(B4="", "", IF(B4+VLOOKUP(PublicTransit!A4, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A5, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B4+VLOOKUP(PublicTransit!A4, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A5, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>8.6805555555555566E-2</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2">
-        <f>IF(D4="", "", IF(D4+VLOOKUP(PublicTransit!C4, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C5, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D4+VLOOKUP(PublicTransit!C4, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C5, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>6.0763888888888888E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <f>IF(B5="", "", IF(B5+VLOOKUP(PublicTransit!A5, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A6, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B5+VLOOKUP(PublicTransit!A5, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A6, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.12152777777777779</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2">
-        <f>IF(D5="", "", IF(D5+VLOOKUP(PublicTransit!C5, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C6, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D5+VLOOKUP(PublicTransit!C5, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C6, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.10416666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2">
-        <f>IF(B6="", "", IF(B6+VLOOKUP(PublicTransit!A6, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A7, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B6+VLOOKUP(PublicTransit!A6, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A7, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.14756944444444445</v>
-      </c>
-      <c r="C7">
+      <c r="B24" s="5">
+        <v>80</v>
+      </c>
+      <c r="C24" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>53</v>
+      </c>
+      <c r="E24" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="F24" s="5">
+        <v>77</v>
+      </c>
+      <c r="G24" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="H24" s="5">
+        <v>51</v>
+      </c>
+      <c r="I24" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="J24" s="5">
+        <v>52</v>
+      </c>
+      <c r="K24" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="L24" s="5">
+        <v>53</v>
+      </c>
+      <c r="M24" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="N24" s="5">
+        <v>27</v>
+      </c>
+      <c r="O24" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="P24" s="5">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="R24" s="5">
+        <v>26</v>
+      </c>
+      <c r="S24" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="T24" s="5">
+        <v>30</v>
+      </c>
+      <c r="U24" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="V24" s="5">
+        <v>27</v>
+      </c>
+      <c r="W24" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>28</v>
+      </c>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <f>'OD-TravelTime'!A25</f>
         <v>24</v>
       </c>
-      <c r="D7" s="2">
-        <f>IF(D6="", "", IF(D6+VLOOKUP(PublicTransit!C6, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C7, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D6+VLOOKUP(PublicTransit!C6, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C7, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.1388888888888889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f>A2</f>
-        <v>20</v>
-      </c>
-      <c r="B8" s="2">
-        <f>IF(B7="", "", IF(B7+VLOOKUP(PublicTransit!A7, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A8, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B7+VLOOKUP(PublicTransit!A7, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A8, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.15625</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <f>IF(D7="", "", IF(D7+VLOOKUP(PublicTransit!C7, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C8, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D7+VLOOKUP(PublicTransit!C7, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C8, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.19097222222222224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" ref="A9:A49" si="0">A3</f>
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <f>IF(B8="", "", IF(B8+VLOOKUP(PublicTransit!A8, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A9, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B8+VLOOKUP(PublicTransit!A8, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A9, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.18229166666666666</v>
-      </c>
-      <c r="C9">
-        <f>C2</f>
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <f>IF(D8="", "", IF(D8+VLOOKUP(PublicTransit!C8, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C9, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D8+VLOOKUP(PublicTransit!C8, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C9, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.20833333333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <f>IF(B9="", "", IF(B9+VLOOKUP(PublicTransit!A9, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A10, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B9+VLOOKUP(PublicTransit!A9, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A10, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.2170138888888889</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:C49" si="1">C3</f>
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <f>IF(D9="", "", IF(D9+VLOOKUP(PublicTransit!C9, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C10, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D9+VLOOKUP(PublicTransit!C9, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C10, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.2170138888888889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <f>IF(B10="", "", IF(B10+VLOOKUP(PublicTransit!A10, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A11, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B10+VLOOKUP(PublicTransit!A10, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A11, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.24305555555555555</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <f>IF(D10="", "", IF(D10+VLOOKUP(PublicTransit!C10, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C11, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D10+VLOOKUP(PublicTransit!C10, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C11, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.2517361111111111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <f>IF(B11="", "", IF(B11+VLOOKUP(PublicTransit!A11, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A12, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B11+VLOOKUP(PublicTransit!A11, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A12, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
-        <f>IF(D11="", "", IF(D11+VLOOKUP(PublicTransit!C11, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C12, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D11+VLOOKUP(PublicTransit!C11, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C12, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.26909722222222221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B13" s="2">
-        <f>IF(B12="", "", IF(B12+VLOOKUP(PublicTransit!A12, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A13, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B12+VLOOKUP(PublicTransit!A12, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A13, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.30381944444444448</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D13" s="2">
-        <f>IF(D12="", "", IF(D12+VLOOKUP(PublicTransit!C12, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C13, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D12+VLOOKUP(PublicTransit!C12, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C13, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B14" s="2">
-        <f>IF(B13="", "", IF(B13+VLOOKUP(PublicTransit!A13, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A14, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B13+VLOOKUP(PublicTransit!A13, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A14, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.31250000000000006</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D14" s="2">
-        <f>IF(D13="", "", IF(D13+VLOOKUP(PublicTransit!C13, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C14, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D13+VLOOKUP(PublicTransit!C13, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C14, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.34722222222222221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B15" s="2">
-        <f>IF(B14="", "", IF(B14+VLOOKUP(PublicTransit!A14, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A15, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B14+VLOOKUP(PublicTransit!A14, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A15, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.33854166666666674</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <f>IF(D14="", "", IF(D14+VLOOKUP(PublicTransit!C14, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C15, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D14+VLOOKUP(PublicTransit!C14, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C15, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.39930555555555552</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <f>IF(B15="", "", IF(B15+VLOOKUP(PublicTransit!A15, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A16, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B15+VLOOKUP(PublicTransit!A15, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A16, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.37326388888888895</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D16" s="2">
-        <f>IF(D15="", "", IF(D15+VLOOKUP(PublicTransit!C15, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C16, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D15+VLOOKUP(PublicTransit!C15, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C16, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.41666666666666663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="2">
-        <f>IF(B16="", "", IF(B16+VLOOKUP(PublicTransit!A16, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A17, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B16+VLOOKUP(PublicTransit!A16, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A17, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.39930555555555564</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D17" s="2">
-        <f>IF(D16="", "", IF(D16+VLOOKUP(PublicTransit!C16, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C17, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D16+VLOOKUP(PublicTransit!C16, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C17, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.42534722222222221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B18" s="2">
-        <f>IF(B17="", "", IF(B17+VLOOKUP(PublicTransit!A17, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A18, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B17+VLOOKUP(PublicTransit!A17, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A18, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.43402777777777785</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D18" s="2">
-        <f>IF(D17="", "", IF(D17+VLOOKUP(PublicTransit!C17, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C18, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D17+VLOOKUP(PublicTransit!C17, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C18, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.46006944444444442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <f>IF(B18="", "", IF(B18+VLOOKUP(PublicTransit!A18, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A19, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B18+VLOOKUP(PublicTransit!A18, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A19, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.46006944444444453</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D19" s="2">
-        <f>IF(D18="", "", IF(D18+VLOOKUP(PublicTransit!C18, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C19, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D18+VLOOKUP(PublicTransit!C18, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C19, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.47743055555555552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <f>IF(B19="", "", IF(B19+VLOOKUP(PublicTransit!A19, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A20, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B19+VLOOKUP(PublicTransit!A19, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A20, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.46875000000000011</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D20" s="2">
-        <f>IF(D19="", "", IF(D19+VLOOKUP(PublicTransit!C19, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C20, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D19+VLOOKUP(PublicTransit!C19, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C20, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.52083333333333326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B21" s="2">
-        <f>IF(B20="", "", IF(B20+VLOOKUP(PublicTransit!A20, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A21, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B20+VLOOKUP(PublicTransit!A20, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A21, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.4947916666666668</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D21" s="2">
-        <f>IF(D20="", "", IF(D20+VLOOKUP(PublicTransit!C20, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C21, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D20+VLOOKUP(PublicTransit!C20, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C21, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.55555555555555547</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B22" s="2">
-        <f>IF(B21="", "", IF(B21+VLOOKUP(PublicTransit!A21, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A22, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B21+VLOOKUP(PublicTransit!A21, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A22, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.52951388888888906</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <f>IF(D21="", "", IF(D21+VLOOKUP(PublicTransit!C21, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C22, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D21+VLOOKUP(PublicTransit!C21, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C22, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.60763888888888884</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B23" s="2">
-        <f>IF(B22="", "", IF(B22+VLOOKUP(PublicTransit!A22, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A23, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B22+VLOOKUP(PublicTransit!A22, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A23, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.55555555555555569</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D23" s="2">
-        <f>IF(D22="", "", IF(D22+VLOOKUP(PublicTransit!C22, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C23, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D22+VLOOKUP(PublicTransit!C22, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C23, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B24" s="2">
-        <f>IF(B23="", "", IF(B23+VLOOKUP(PublicTransit!A23, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A24, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B23+VLOOKUP(PublicTransit!A23, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A24, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.5902777777777779</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D24" s="2">
-        <f>IF(D23="", "", IF(D23+VLOOKUP(PublicTransit!C23, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C24, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D23+VLOOKUP(PublicTransit!C23, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C24, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.63368055555555558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B25" s="2">
-        <f>IF(B24="", "", IF(B24+VLOOKUP(PublicTransit!A24, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A25, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B24+VLOOKUP(PublicTransit!A24, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A25, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.61631944444444453</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D25" s="2">
-        <f>IF(D24="", "", IF(D24+VLOOKUP(PublicTransit!C24, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C25, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D24+VLOOKUP(PublicTransit!C24, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C25, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.66840277777777779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="2">
-        <f>IF(B25="", "", IF(B25+VLOOKUP(PublicTransit!A25, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A26, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B25+VLOOKUP(PublicTransit!A25, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A26, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.62500000000000011</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D26" s="2">
-        <f>IF(D25="", "", IF(D25+VLOOKUP(PublicTransit!C25, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C26, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D25+VLOOKUP(PublicTransit!C25, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C26, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.68576388888888895</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B27" s="2">
-        <f>IF(B26="", "", IF(B26+VLOOKUP(PublicTransit!A26, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A27, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B26+VLOOKUP(PublicTransit!A26, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A27, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.65104166666666674</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D27" s="2">
-        <f>IF(D26="", "", IF(D26+VLOOKUP(PublicTransit!C26, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C27, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D26+VLOOKUP(PublicTransit!C26, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C27, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.72916666666666674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B28" s="2">
-        <f>IF(B27="", "", IF(B27+VLOOKUP(PublicTransit!A27, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A28, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B27+VLOOKUP(PublicTransit!A27, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A28, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.68576388888888895</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D28" s="2">
-        <f>IF(D27="", "", IF(D27+VLOOKUP(PublicTransit!C27, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C28, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D27+VLOOKUP(PublicTransit!C27, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C28, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.76388888888888895</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B29" s="2">
-        <f>IF(B28="", "", IF(B28+VLOOKUP(PublicTransit!A28, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A29, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B28+VLOOKUP(PublicTransit!A28, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A29, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.71180555555555558</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D29" s="2">
-        <f>IF(D28="", "", IF(D28+VLOOKUP(PublicTransit!C28, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C29, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D28+VLOOKUP(PublicTransit!C28, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C29, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.81597222222222232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B30" s="2">
-        <f>IF(B29="", "", IF(B29+VLOOKUP(PublicTransit!A29, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A30, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B29+VLOOKUP(PublicTransit!A29, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A30, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D30" s="2">
-        <f>IF(D29="", "", IF(D29+VLOOKUP(PublicTransit!C29, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C30, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D29+VLOOKUP(PublicTransit!C29, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C30, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.83333333333333348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B31" s="2">
-        <f>IF(B30="", "", IF(B30+VLOOKUP(PublicTransit!A30, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A31, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B30+VLOOKUP(PublicTransit!A30, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A31, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.77256944444444442</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D31" s="2">
-        <f>IF(D30="", "", IF(D30+VLOOKUP(PublicTransit!C30, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C31, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D30+VLOOKUP(PublicTransit!C30, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C31, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.84201388888888906</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B32" s="2">
-        <f>IF(B31="", "", IF(B31+VLOOKUP(PublicTransit!A31, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A32, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B31+VLOOKUP(PublicTransit!A31, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A32, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.78125</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D32" s="2">
-        <f>IF(D31="", "", IF(D31+VLOOKUP(PublicTransit!C31, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C32, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D31+VLOOKUP(PublicTransit!C31, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C32, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.87673611111111127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B33" s="2">
-        <f>IF(B32="", "", IF(B32+VLOOKUP(PublicTransit!A32, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A33, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B32+VLOOKUP(PublicTransit!A32, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A33, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.80729166666666663</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D33" s="2">
-        <f>IF(D32="", "", IF(D32+VLOOKUP(PublicTransit!C32, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C33, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D32+VLOOKUP(PublicTransit!C32, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C33, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.89409722222222243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B34" s="2">
-        <f>IF(B33="", "", IF(B33+VLOOKUP(PublicTransit!A33, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A34, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B33+VLOOKUP(PublicTransit!A33, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A34, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.84201388888888884</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D34" s="2">
-        <f>IF(D33="", "", IF(D33+VLOOKUP(PublicTransit!C33, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C34, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D33+VLOOKUP(PublicTransit!C33, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C34, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.93750000000000022</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B35" s="2">
-        <f>IF(B34="", "", IF(B34+VLOOKUP(PublicTransit!A34, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A35, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B34+VLOOKUP(PublicTransit!A34, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A35, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D35" s="2">
-        <f>IF(D34="", "", IF(D34+VLOOKUP(PublicTransit!C34, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C35, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D34+VLOOKUP(PublicTransit!C34, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C35, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.97222222222222243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B36" s="2">
-        <f>IF(B35="", "", IF(B35+VLOOKUP(PublicTransit!A35, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A36, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B35+VLOOKUP(PublicTransit!A35, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A36, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.90277777777777768</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D36" s="2" t="str">
-        <f>IF(D35="", "", IF(D35+VLOOKUP(PublicTransit!C35, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C36, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D35+VLOOKUP(PublicTransit!C35, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C36, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B37" s="2">
-        <f>IF(B36="", "", IF(B36+VLOOKUP(PublicTransit!A36, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A37, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B36+VLOOKUP(PublicTransit!A36, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A37, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.92881944444444431</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="str">
-        <f>IF(D36="", "", IF(D36+VLOOKUP(PublicTransit!C36, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C37, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D36+VLOOKUP(PublicTransit!C36, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C37, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B38" s="2">
-        <f>IF(B37="", "", IF(B37+VLOOKUP(PublicTransit!A37, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A38, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B37+VLOOKUP(PublicTransit!A37, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A38, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.93749999999999989</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="str">
-        <f>IF(D37="", "", IF(D37+VLOOKUP(PublicTransit!C37, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C38, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D37+VLOOKUP(PublicTransit!C37, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C38, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B39" s="2">
-        <f>IF(B38="", "", IF(B38+VLOOKUP(PublicTransit!A38, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A39, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B38+VLOOKUP(PublicTransit!A38, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A39, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.96354166666666652</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D39" s="2" t="str">
-        <f>IF(D38="", "", IF(D38+VLOOKUP(PublicTransit!C38, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C39, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D38+VLOOKUP(PublicTransit!C38, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C39, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B40" s="2">
-        <f>IF(B39="", "", IF(B39+VLOOKUP(PublicTransit!A39, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A40, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B39+VLOOKUP(PublicTransit!A39, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A40, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v>0.99826388888888873</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D40" s="2" t="str">
-        <f>IF(D39="", "", IF(D39+VLOOKUP(PublicTransit!C39, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C40, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D39+VLOOKUP(PublicTransit!C39, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C40, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B41" s="2" t="str">
-        <f>IF(B40="", "", IF(B40+VLOOKUP(PublicTransit!A40, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A41, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B40+VLOOKUP(PublicTransit!A40, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A41, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-      <c r="C41">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D41" s="2" t="str">
-        <f>IF(D40="", "", IF(D40+VLOOKUP(PublicTransit!C40, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C41, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D40+VLOOKUP(PublicTransit!C40, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C41, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B42" s="2" t="str">
-        <f>IF(B41="", "", IF(B41+VLOOKUP(PublicTransit!A41, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A42, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B41+VLOOKUP(PublicTransit!A41, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A42, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-      <c r="C42">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D42" s="2" t="str">
-        <f>IF(D41="", "", IF(D41+VLOOKUP(PublicTransit!C41, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C42, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D41+VLOOKUP(PublicTransit!C41, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C42, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B43" s="2" t="str">
-        <f>IF(B42="", "", IF(B42+VLOOKUP(PublicTransit!A42, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A43, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B42+VLOOKUP(PublicTransit!A42, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A43, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-      <c r="C43">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D43" s="2" t="str">
-        <f>IF(D42="", "", IF(D42+VLOOKUP(PublicTransit!C42, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C43, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D42+VLOOKUP(PublicTransit!C42, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C43, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B44" s="2" t="str">
-        <f>IF(B43="", "", IF(B43+VLOOKUP(PublicTransit!A43, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A44, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B43+VLOOKUP(PublicTransit!A43, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A44, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-      <c r="C44">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="str">
-        <f>IF(D43="", "", IF(D43+VLOOKUP(PublicTransit!C43, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C44, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D43+VLOOKUP(PublicTransit!C43, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C44, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B45" s="2" t="str">
-        <f>IF(B44="", "", IF(B44+VLOOKUP(PublicTransit!A44, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A45, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B44+VLOOKUP(PublicTransit!A44, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A45, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-      <c r="C45">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="str">
-        <f>IF(D44="", "", IF(D44+VLOOKUP(PublicTransit!C44, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C45, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D44+VLOOKUP(PublicTransit!C44, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C45, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B46" s="2" t="str">
-        <f>IF(B45="", "", IF(B45+VLOOKUP(PublicTransit!A45, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A46, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B45+VLOOKUP(PublicTransit!A45, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A46, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-      <c r="C46">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D46" s="2" t="str">
-        <f>IF(D45="", "", IF(D45+VLOOKUP(PublicTransit!C45, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C46, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D45+VLOOKUP(PublicTransit!C45, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C46, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B47" s="2" t="str">
-        <f>IF(B46="", "", IF(B46+VLOOKUP(PublicTransit!A46, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A47, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B46+VLOOKUP(PublicTransit!A46, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A47, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-      <c r="C47">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D47" s="2" t="str">
-        <f>IF(D46="", "", IF(D46+VLOOKUP(PublicTransit!C46, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C47, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D46+VLOOKUP(PublicTransit!C46, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C47, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B48" s="2" t="str">
-        <f>IF(B47="", "", IF(B47+VLOOKUP(PublicTransit!A47, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A48, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B47+VLOOKUP(PublicTransit!A47, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A48, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-      <c r="C48">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D48" s="2" t="str">
-        <f>IF(D47="", "", IF(D47+VLOOKUP(PublicTransit!C47, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C48, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D47+VLOOKUP(PublicTransit!C47, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C48, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B49" s="2" t="str">
-        <f>IF(B48="", "", IF(B48+VLOOKUP(PublicTransit!A48, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A49, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B48+VLOOKUP(PublicTransit!A48, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A49, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
-      <c r="C49">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D49" s="2" t="str">
-        <f>IF(D48="", "", IF(D48+VLOOKUP(PublicTransit!C48, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C49, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D48+VLOOKUP(PublicTransit!C48, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C49, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
-        <v/>
-      </c>
+      <c r="B25" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="C25" s="5">
+        <v>77</v>
+      </c>
+      <c r="D25" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>55</v>
+      </c>
+      <c r="F25" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="G25" s="5">
+        <v>75</v>
+      </c>
+      <c r="H25" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="I25" s="5">
+        <v>55</v>
+      </c>
+      <c r="J25" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="K25" s="5">
+        <v>50</v>
+      </c>
+      <c r="L25" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="M25" s="5">
+        <v>50</v>
+      </c>
+      <c r="N25" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="O25" s="5">
+        <v>27</v>
+      </c>
+      <c r="P25" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>51</v>
+      </c>
+      <c r="R25" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="S25" s="5">
+        <v>28</v>
+      </c>
+      <c r="T25" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="U25" s="5">
+        <v>29</v>
+      </c>
+      <c r="V25" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="W25" s="5">
+        <v>30</v>
+      </c>
+      <c r="X25" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <f>'OD-TravelTime'!A26</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>100</v>
+      </c>
+      <c r="C26" s="5">
+        <v>89.5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>78</v>
+      </c>
+      <c r="E26" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="F26" s="5">
+        <v>54</v>
+      </c>
+      <c r="G26" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="H26" s="5">
+        <v>76</v>
+      </c>
+      <c r="I26" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="J26" s="5">
+        <v>50</v>
+      </c>
+      <c r="K26" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="L26" s="5">
+        <v>75</v>
+      </c>
+      <c r="M26" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="N26" s="5">
+        <v>53</v>
+      </c>
+      <c r="O26" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="P26" s="5">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="R26" s="5">
+        <v>52</v>
+      </c>
+      <c r="S26" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="T26" s="5">
+        <v>27</v>
+      </c>
+      <c r="U26" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="V26" s="5">
+        <v>52</v>
+      </c>
+      <c r="W26" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="X26" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93CDCE4-85C2-9B4B-9703-752A7F334BF8}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>